--- a/rider/weekly/2017_ 7.xlsx
+++ b/rider/weekly/2017_ 7.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>253</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>144</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.47</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.19</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.81</c:v>
+                  <c:v>203.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229.2</c:v>
+                  <c:v>229.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237.12</c:v>
+                  <c:v>238.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.88</c:v>
+                  <c:v>120.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103.67</c:v>
+                  <c:v>102.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D2">
-        <v>225.47</v>
+        <v>229.2</v>
       </c>
       <c r="E2">
         <v>105.29</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D3">
-        <v>209.19</v>
+        <v>208.5</v>
       </c>
       <c r="E3">
         <v>105.45</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D4">
-        <v>213.81</v>
+        <v>203.62</v>
       </c>
       <c r="E4">
         <v>105.61</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D5">
-        <v>229.2</v>
+        <v>229.67</v>
       </c>
       <c r="E5">
         <v>105.77</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>237.12</v>
+        <v>238.69</v>
       </c>
       <c r="E6">
         <v>105.94</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>118.88</v>
+        <v>120.06</v>
       </c>
       <c r="E7">
         <v>106.1</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>103.67</v>
+        <v>102.47</v>
       </c>
       <c r="E8">
         <v>106.26</v>
